--- a/Data/EC/NIT-9017864828.xlsx
+++ b/Data/EC/NIT-9017864828.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA199D8-5F9C-40C2-B84A-69E63EA9385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7E277F-2729-4C10-9E6D-95C851A75BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE419CE3-0FBA-45B7-A51D-A1BF67169187}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A23D3E39-F193-4409-840A-7251F23CA026}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,25 +71,28 @@
     <t>DARWIN ALEXANDER MERCADO VEGA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93212BE4-3F09-5179-899E-8626D77EE42F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D66DAD-E8C5-BF4D-ECD2-12608DFA673B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C3E38A-106E-488D-B391-884EDBA376CB}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B05F5F2-9FF0-4EA2-B507-951C0DB6FD0A}">
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -879,7 +882,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +927,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +959,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>325867</v>
+        <v>377867</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,17 +975,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1009,13 +1012,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13867</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,7 +1061,7 @@
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,7 +1084,7 @@
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1104,7 +1107,7 @@
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1127,7 +1130,7 @@
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,49 +1153,61 @@
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
         <v>52000</v>
       </c>
-      <c r="G22" s="24">
-        <v>1700000</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="G22" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="24">
+        <v>13867</v>
+      </c>
+      <c r="G23" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="32"/>
       <c r="H28" s="1" t="s">
@@ -1201,12 +1216,23 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017864828.xlsx
+++ b/Data/EC/NIT-9017864828.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7E277F-2729-4C10-9E6D-95C851A75BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74D7994-32A2-4D2D-9734-4622AA0088B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A23D3E39-F193-4409-840A-7251F23CA026}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{854A3FB2-9506-45D4-BC37-F2A057BCD751}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,28 +71,31 @@
     <t>DARWIN ALEXANDER MERCADO VEGA</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -191,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D66DAD-E8C5-BF4D-ECD2-12608DFA673B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ADAD50-D441-0047-D159-4D1D2D0C93D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B05F5F2-9FF0-4EA2-B507-951C0DB6FD0A}">
-  <dimension ref="B2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEB5B69-E27D-470A-88B2-909B8E9C9DAF}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -882,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -959,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>377867</v>
+        <v>429867</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +978,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1012,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1035,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>13867</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,7 +1064,7 @@
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,7 +1087,7 @@
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,7 +1110,7 @@
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,7 +1133,7 @@
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,7 +1156,7 @@
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,49 +1179,61 @@
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="24">
-        <v>13867</v>
-      </c>
-      <c r="G23" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F23" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" s="32"/>
       <c r="H29" s="1" t="s">
@@ -1227,12 +1242,23 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017864828.xlsx
+++ b/Data/EC/NIT-9017864828.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74D7994-32A2-4D2D-9734-4622AA0088B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BC3B61-AE5D-461E-BB0D-A3AAEDAF271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{854A3FB2-9506-45D4-BC37-F2A057BCD751}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4043333C-7741-4810-84EE-C559385BD5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,9 +197,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -209,7 +210,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +406,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ADAD50-D441-0047-D159-4D1D2D0C93D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9BCFE9-A9DD-4A84-88DF-5BC521B248A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEB5B69-E27D-470A-88B2-909B8E9C9DAF}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055F3CB3-52E9-4521-864B-0CA17C43E53F}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -883,57 +892,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -949,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9017864828</v>
       </c>
@@ -962,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>429867</v>
+        <v>481867</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1034,18 +1043,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>13867</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1300000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1057,18 +1066,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>52000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1300000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1080,18 +1089,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>52000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1300000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1103,18 +1112,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>52000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1300000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1126,18 +1135,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>52000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1300000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1149,18 +1158,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>52000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1300000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1172,18 +1181,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>52000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1300000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1195,70 +1204,93 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>52000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1300000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <v>52000</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <v>1300000</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="32"/>
+      <c r="B30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="H31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
